--- a/D项目/市场销售/调查20180809.xlsx
+++ b/D项目/市场销售/调查20180809.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="大魔王" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="69">
   <si>
     <t>大魔王</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1735,6 +1735,89 @@
   </si>
   <si>
     <t>未</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2082,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2094,7 +2177,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2104,8 +2187,11 @@
       <c r="E1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2116,7 +2202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -2124,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -2132,7 +2218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -2140,7 +2226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -2149,7 +2235,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -2157,7 +2243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -2165,7 +2251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -2179,7 +2265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -2187,7 +2273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -2195,7 +2281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -2204,15 +2290,18 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -2220,7 +2309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -2228,7 +2317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -2236,7 +2325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -2250,7 +2339,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -2258,7 +2347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -2271,8 +2360,11 @@
       <c r="E25" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="F25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -2280,7 +2372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:6">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -2297,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2309,15 +2401,18 @@
     <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2328,7 +2423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>43321</v>
       </c>
@@ -2342,7 +2437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -2356,7 +2451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>43322</v>
       </c>
@@ -2367,7 +2462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -2381,7 +2476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2390,7 +2485,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2401,7 +2496,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>43323</v>
       </c>
@@ -2415,7 +2510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -2429,7 +2524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>43</v>
       </c>
@@ -2441,7 +2536,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2458,7 +2553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>43324</v>
       </c>
@@ -2469,7 +2564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>42</v>
       </c>
@@ -2483,7 +2578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -2497,7 +2592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2507,8 +2602,11 @@
       <c r="C20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>43325</v>
       </c>
@@ -2519,7 +2617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>42</v>
       </c>
@@ -2527,7 +2625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -2535,7 +2633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -2546,7 +2644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>43326</v>
       </c>
@@ -2558,7 +2656,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -2566,7 +2664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -2574,7 +2672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -2586,7 +2684,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="B31" t="s">
         <v>41</v>
       </c>
@@ -2594,7 +2692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="B32" t="s">
         <v>42</v>
       </c>
@@ -2619,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2632,15 +2730,18 @@
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2651,7 +2752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>43321</v>
       </c>
@@ -2662,7 +2763,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>46</v>
@@ -2674,7 +2775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2688,7 +2789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>43322</v>
       </c>
@@ -2702,7 +2803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -2710,7 +2811,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -2719,7 +2820,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -2728,7 +2829,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2745,7 +2846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>43323</v>
       </c>
@@ -2762,7 +2863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -2776,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -2785,7 +2886,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -2794,7 +2895,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -2805,7 +2906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>43324</v>
       </c>
@@ -2816,7 +2917,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -2824,7 +2925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6">
       <c r="B21" t="s">
         <v>45</v>
       </c>
@@ -2833,7 +2934,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>46</v>
       </c>
@@ -2842,7 +2943,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -2852,8 +2953,11 @@
       <c r="C24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>43325</v>
       </c>
@@ -2864,7 +2968,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>44</v>
       </c>
@@ -2872,7 +2976,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>45</v>
       </c>
@@ -2880,7 +2984,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:6">
       <c r="B28" t="s">
         <v>46</v>
       </c>
@@ -2888,7 +2992,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2899,7 +3003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>43326</v>
       </c>
@@ -2910,8 +3014,11 @@
         <v>51</v>
       </c>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="B32" t="s">
         <v>44</v>
       </c>
@@ -2987,10 +3094,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3000,15 +3107,18 @@
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -3020,7 +3130,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>43321</v>
       </c>
@@ -3034,7 +3144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -3045,7 +3155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>53</v>
@@ -3054,7 +3164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3066,7 +3176,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>43322</v>
       </c>
@@ -3081,7 +3191,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -3095,7 +3205,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -3104,7 +3214,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="B11" t="s">
         <v>53</v>
       </c>
@@ -3113,7 +3223,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3130,7 +3240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>43323</v>
       </c>
@@ -3147,7 +3257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -3161,7 +3271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -3175,7 +3285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>53</v>
       </c>
@@ -3184,7 +3294,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -3195,7 +3305,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>43324</v>
       </c>
@@ -3212,7 +3322,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -3226,7 +3336,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>43</v>
       </c>
@@ -3240,7 +3350,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>53</v>
       </c>
@@ -3248,8 +3358,11 @@
         <v>57</v>
       </c>
       <c r="D23" s="1"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3259,8 +3372,11 @@
       <c r="C25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>43325</v>
       </c>
@@ -3271,7 +3387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -3281,8 +3397,11 @@
       <c r="E27" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -3290,7 +3409,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="B29" t="s">
         <v>53</v>
       </c>
@@ -3298,7 +3417,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -3309,7 +3428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>43326</v>
       </c>
@@ -3321,7 +3440,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="B33" t="s">
         <v>42</v>
       </c>
@@ -3329,7 +3448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="B34" t="s">
         <v>43</v>
       </c>
@@ -3337,7 +3456,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="B35" t="s">
         <v>53</v>
       </c>
@@ -3345,7 +3464,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -3357,7 +3476,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -3370,8 +3489,11 @@
       <c r="E38" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="B39" t="s">
         <v>42</v>
       </c>
@@ -3379,7 +3501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="B40" t="s">
         <v>43</v>
       </c>
@@ -3387,7 +3509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="B41" t="s">
         <v>53</v>
       </c>

--- a/D项目/市场销售/调查20180809.xlsx
+++ b/D项目/市场销售/调查20180809.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="大魔王" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="72">
   <si>
     <t>大魔王</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1818,6 +1818,50 @@
   </si>
   <si>
     <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2165,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2177,7 +2221,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2190,8 +2234,11 @@
       <c r="F1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2202,7 +2249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -2210,7 +2257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -2226,7 +2273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -2235,7 +2282,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -2243,7 +2290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -2251,7 +2298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -2273,7 +2320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -2281,7 +2328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -2290,7 +2337,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:7">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -2301,7 +2348,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:7">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -2309,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:7">
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -2317,7 +2364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:7">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -2325,7 +2372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:7">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -2338,8 +2385,11 @@
       <c r="E22" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="G22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -2347,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:7">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2413,11 @@
       <c r="F25" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="G25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -2372,7 +2425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:7">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -2389,10 +2442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2401,7 +2454,7 @@
     <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="D1" t="s">
         <v>58</v>
       </c>
@@ -2411,8 +2464,11 @@
       <c r="F1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2423,7 +2479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>43321</v>
       </c>
@@ -2437,7 +2493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -2451,7 +2507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>43322</v>
       </c>
@@ -2462,7 +2518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -2476,7 +2532,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2485,7 +2541,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2496,7 +2552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>43323</v>
       </c>
@@ -2510,7 +2566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -2524,7 +2580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>43</v>
       </c>
@@ -2536,7 +2592,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2553,7 +2609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>43324</v>
       </c>
@@ -2564,7 +2620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="B17" t="s">
         <v>42</v>
       </c>
@@ -2578,7 +2634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -2592,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2606,7 +2662,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>43325</v>
       </c>
@@ -2617,7 +2673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="B22" t="s">
         <v>42</v>
       </c>
@@ -2625,7 +2681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -2633,7 +2689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -2644,7 +2700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>43326</v>
       </c>
@@ -2655,8 +2711,11 @@
         <v>28</v>
       </c>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -2664,7 +2723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -2672,7 +2731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -2684,7 +2743,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="B31" t="s">
         <v>41</v>
       </c>
@@ -2692,7 +2751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="B32" t="s">
         <v>42</v>
       </c>
@@ -2717,10 +2776,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2730,7 +2789,7 @@
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="D1" t="s">
         <v>58</v>
       </c>
@@ -2740,8 +2799,11 @@
       <c r="F1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2752,7 +2814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>43321</v>
       </c>
@@ -2763,7 +2825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>46</v>
@@ -2775,7 +2837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2789,7 +2851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>43322</v>
       </c>
@@ -2803,7 +2865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -2811,7 +2873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -2820,7 +2882,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -2829,7 +2891,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2846,7 +2908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>43323</v>
       </c>
@@ -2863,7 +2925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -2877,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -2886,7 +2948,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -2895,7 +2957,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -2906,7 +2968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>43324</v>
       </c>
@@ -2916,8 +2978,11 @@
       <c r="C19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -2925,7 +2990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="B21" t="s">
         <v>45</v>
       </c>
@@ -2934,7 +2999,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="B22" t="s">
         <v>46</v>
       </c>
@@ -2943,7 +3008,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -2957,7 +3022,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>43325</v>
       </c>
@@ -2968,7 +3033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="B26" t="s">
         <v>44</v>
       </c>
@@ -2976,7 +3041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="B27" t="s">
         <v>45</v>
       </c>
@@ -2984,7 +3049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="B28" t="s">
         <v>46</v>
       </c>
@@ -2992,7 +3057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3003,7 +3068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>43326</v>
       </c>
@@ -3018,7 +3083,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="B32" t="s">
         <v>44</v>
       </c>
@@ -3094,10 +3159,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3107,7 +3172,7 @@
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="D1" t="s">
         <v>58</v>
       </c>
@@ -3117,8 +3182,11 @@
       <c r="F1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -3130,7 +3198,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>43321</v>
       </c>
@@ -3144,7 +3212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -3155,7 +3223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>53</v>
@@ -3164,7 +3232,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3176,7 +3244,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>43322</v>
       </c>
@@ -3191,7 +3259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -3205,7 +3273,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -3214,7 +3282,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>53</v>
       </c>
@@ -3223,7 +3291,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3240,7 +3308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>43323</v>
       </c>
@@ -3257,7 +3325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -3271,7 +3339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -3285,7 +3353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="B17" t="s">
         <v>53</v>
       </c>
@@ -3294,7 +3362,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -3305,7 +3373,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>43324</v>
       </c>
@@ -3322,7 +3390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -3336,7 +3404,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="B22" t="s">
         <v>43</v>
       </c>
@@ -3350,7 +3418,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="B23" t="s">
         <v>53</v>
       </c>
@@ -3362,7 +3430,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3376,7 +3444,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>43325</v>
       </c>
@@ -3387,7 +3455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -3401,7 +3469,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -3409,7 +3477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="B29" t="s">
         <v>53</v>
       </c>
@@ -3417,7 +3485,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -3428,7 +3496,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>43326</v>
       </c>
@@ -3439,8 +3507,11 @@
         <v>54</v>
       </c>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="B33" t="s">
         <v>42</v>
       </c>
@@ -3448,7 +3519,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="B34" t="s">
         <v>43</v>
       </c>
@@ -3456,7 +3527,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="B35" t="s">
         <v>53</v>
       </c>
@@ -3464,7 +3535,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -3475,8 +3546,11 @@
         <v>55</v>
       </c>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -3492,8 +3566,11 @@
       <c r="F38" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="B39" t="s">
         <v>42</v>
       </c>
@@ -3501,7 +3578,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="B40" t="s">
         <v>43</v>
       </c>
@@ -3509,7 +3586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="B41" t="s">
         <v>53</v>
       </c>
@@ -3520,5 +3597,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>